--- a/Team-Data/2011-12/1-30-2011-12.xlsx
+++ b/Team-Data/2011-12/1-30-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>6.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF2" t="n">
         <v>4</v>
@@ -756,10 +823,10 @@
         <v>4</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -768,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
         <v>17</v>
@@ -783,13 +850,13 @@
         <v>14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR2" t="n">
         <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT2" t="n">
         <v>15</v>
@@ -798,13 +865,13 @@
         <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
         <v>13</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
@@ -813,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
         <v>5</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>1.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>22</v>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
@@ -962,10 +1029,10 @@
         <v>20</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -989,10 +1056,10 @@
         <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -1108,25 +1175,25 @@
         <v>-11.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG4" t="n">
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>18</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
@@ -1141,25 +1208,25 @@
         <v>25</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>25</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
@@ -1171,13 +1238,13 @@
         <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.783</v>
+        <v>0.773</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>81.8</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0.459</v>
@@ -1239,52 +1306,52 @@
         <v>5.3</v>
       </c>
       <c r="M5" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.366</v>
       </c>
       <c r="O5" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="P5" t="n">
-        <v>22.4</v>
+        <v>22</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R5" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S5" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T5" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="U5" t="n">
         <v>22.3</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC5" t="n">
         <v>9.4</v>
@@ -1317,19 +1384,19 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>21</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1344,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW5" t="n">
         <v>21</v>
@@ -1353,16 +1420,16 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
         <v>27</v>
       </c>
       <c r="BB5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>-3.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
@@ -1490,13 +1557,13 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM6" t="n">
         <v>13</v>
@@ -1520,7 +1587,7 @@
         <v>25</v>
       </c>
       <c r="AT6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU6" t="n">
         <v>21</v>
@@ -1529,7 +1596,7 @@
         <v>29</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
         <v>22</v>
@@ -1544,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="BB6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -1576,88 +1643,88 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>0.636</v>
+        <v>0.619</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>35.8</v>
+        <v>35.2</v>
       </c>
       <c r="J7" t="n">
-        <v>80.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.442</v>
+        <v>0.437</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.321</v>
+        <v>0.309</v>
       </c>
       <c r="O7" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="R7" t="n">
         <v>10.5</v>
       </c>
       <c r="S7" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
         <v>43</v>
       </c>
       <c r="U7" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AA7" t="n">
         <v>18.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
@@ -1666,34 +1733,34 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>20</v>
@@ -1708,13 +1775,13 @@
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>4</v>
@@ -1723,10 +1790,10 @@
         <v>14</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -1836,37 +1903,37 @@
         <v>6.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>4</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
         <v>4</v>
       </c>
       <c r="AI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
         <v>1</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>2</v>
-      </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
         <v>28</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
         <v>13</v>
@@ -1896,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -1940,67 +2007,67 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.182</v>
+        <v>0.19</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
       </c>
       <c r="I9" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="J9" t="n">
-        <v>77.7</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.419</v>
+        <v>0.421</v>
       </c>
       <c r="L9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.354</v>
+        <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P9" t="n">
         <v>20.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="R9" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="S9" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="T9" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="U9" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="V9" t="n">
         <v>16.4</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y9" t="n">
         <v>5.2</v>
@@ -2012,10 +2079,10 @@
         <v>18.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>-10.5</v>
+        <v>-10</v>
       </c>
       <c r="AD9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>29</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>30</v>
@@ -2048,7 +2115,7 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>21</v>
@@ -2060,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2069,13 +2136,13 @@
         <v>30</v>
       </c>
       <c r="AU9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV9" t="n">
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2212,16 +2279,16 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>5</v>
@@ -2233,13 +2300,13 @@
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR10" t="n">
         <v>26</v>
@@ -2272,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="BB10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -2304,109 +2371,109 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
         <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.571</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I11" t="n">
         <v>38.4</v>
       </c>
       <c r="J11" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L11" t="n">
         <v>6.8</v>
       </c>
       <c r="M11" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.327</v>
+        <v>0.325</v>
       </c>
       <c r="O11" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="P11" t="n">
-        <v>19</v>
+        <v>18.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.794</v>
+        <v>0.802</v>
       </c>
       <c r="R11" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S11" t="n">
-        <v>31.8</v>
+        <v>32.3</v>
       </c>
       <c r="T11" t="n">
-        <v>44.3</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
         <v>7.4</v>
       </c>
       <c r="X11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI11" t="n">
         <v>5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>3</v>
       </c>
       <c r="AJ11" t="n">
         <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2415,10 +2482,10 @@
         <v>19</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2427,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="AS11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -2442,22 +2509,22 @@
         <v>20</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA11" t="n">
         <v>30</v>
       </c>
       <c r="BB11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2582,7 +2649,7 @@
         <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>25</v>
@@ -2597,19 +2664,19 @@
         <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR12" t="n">
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2618,16 +2685,16 @@
         <v>28</v>
       </c>
       <c r="AV12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
         <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>23</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -2668,88 +2735,88 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.667</v>
+        <v>0.647</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="J13" t="n">
         <v>79.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.459</v>
+        <v>0.452</v>
       </c>
       <c r="L13" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.371</v>
+        <v>0.36</v>
       </c>
       <c r="O13" t="n">
-        <v>17.6</v>
+        <v>18.1</v>
       </c>
       <c r="P13" t="n">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.66</v>
+        <v>0.662</v>
       </c>
       <c r="R13" t="n">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="S13" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T13" t="n">
-        <v>40.3</v>
+        <v>40.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21.8</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
         <v>14.1</v>
       </c>
       <c r="W13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X13" t="n">
         <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>4</v>
@@ -2761,46 +2828,46 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM13" t="n">
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>26</v>
       </c>
       <c r="AT13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW13" t="n">
         <v>14</v>
@@ -2809,19 +2876,19 @@
         <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>2</v>
       </c>
       <c r="BB13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -2928,25 +2995,25 @@
         <v>1.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
         <v>11</v>
@@ -2967,10 +3034,10 @@
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>4</v>
@@ -2979,7 +3046,7 @@
         <v>4</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>11</v>
@@ -2988,7 +3055,7 @@
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>20</v>
       </c>
       <c r="BC14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -3032,91 +3099,91 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.526</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.7</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.7</v>
+        <v>82.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="L15" t="n">
         <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O15" t="n">
         <v>16.5</v>
       </c>
       <c r="P15" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
         <v>30.3</v>
       </c>
       <c r="T15" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U15" t="n">
-        <v>18.9</v>
+        <v>19.4</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>10.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.3</v>
+        <v>94.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
         <v>16</v>
@@ -3125,67 +3192,67 @@
         <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS15" t="n">
         <v>20</v>
       </c>
       <c r="AT15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
         <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
         <v>13</v>
       </c>
       <c r="BA15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.762</v>
+        <v>0.75</v>
       </c>
       <c r="H16" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I16" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="J16" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.486</v>
+        <v>0.483</v>
       </c>
       <c r="L16" t="n">
         <v>5.6</v>
@@ -3244,58 +3311,58 @@
         <v>14.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="O16" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="P16" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R16" t="n">
         <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T16" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Z16" t="n">
         <v>21.4</v>
       </c>
-      <c r="V16" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="W16" t="n">
-        <v>9</v>
-      </c>
-      <c r="X16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>21.1</v>
-      </c>
       <c r="AA16" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
@@ -3307,25 +3374,25 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL16" t="n">
         <v>21</v>
       </c>
       <c r="AM16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN16" t="n">
         <v>6</v>
       </c>
       <c r="AO16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP16" t="n">
         <v>2</v>
@@ -3334,10 +3401,10 @@
         <v>11</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT16" t="n">
         <v>17</v>
@@ -3352,13 +3419,13 @@
         <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.45</v>
+        <v>0.421</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3414,70 +3481,70 @@
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>83.5</v>
+        <v>84.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.434</v>
+        <v>0.431</v>
       </c>
       <c r="L17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M17" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.324</v>
+        <v>0.312</v>
       </c>
       <c r="O17" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="P17" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R17" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.3</v>
+        <v>93.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -3489,25 +3556,25 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP17" t="n">
         <v>28</v>
@@ -3516,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS17" t="n">
         <v>27</v>
@@ -3525,7 +3592,7 @@
         <v>24</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>10</v>
@@ -3540,7 +3607,7 @@
         <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -3578,70 +3645,70 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>0.476</v>
+        <v>0.45</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
       <c r="J18" t="n">
-        <v>80.3</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.427</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="N18" t="n">
         <v>0.34</v>
       </c>
       <c r="O18" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="P18" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.756</v>
+        <v>0.748</v>
       </c>
       <c r="R18" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T18" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U18" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="V18" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W18" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z18" t="n">
         <v>19.4</v>
@@ -3650,22 +3717,22 @@
         <v>22.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
         <v>22</v>
@@ -3674,49 +3741,49 @@
         <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN18" t="n">
         <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR18" t="n">
         <v>6</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>8</v>
-      </c>
       <c r="AS18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU18" t="n">
         <v>27</v>
       </c>
       <c r="AV18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW18" t="n">
         <v>17</v>
       </c>
       <c r="AX18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY18" t="n">
         <v>26</v>
@@ -3728,10 +3795,10 @@
         <v>4</v>
       </c>
       <c r="BB18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3850,10 +3917,10 @@
         <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
         <v>23</v>
@@ -3871,16 +3938,16 @@
         <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ19" t="n">
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3889,10 +3956,10 @@
         <v>28</v>
       </c>
       <c r="AU19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV19" t="n">
         <v>19</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>18</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="J20" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.439</v>
+        <v>0.435</v>
       </c>
       <c r="L20" t="n">
         <v>3.5</v>
@@ -3972,55 +4039,55 @@
         <v>12.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.277</v>
+        <v>0.275</v>
       </c>
       <c r="O20" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="P20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.738</v>
+        <v>0.745</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.8</v>
       </c>
       <c r="T20" t="n">
-        <v>42</v>
+        <v>42.8</v>
       </c>
       <c r="U20" t="n">
         <v>18.8</v>
       </c>
       <c r="V20" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X20" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>87.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.7</v>
+        <v>-4.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4038,13 +4105,13 @@
         <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -4053,49 +4120,49 @@
         <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
         <v>23</v>
       </c>
       <c r="AV20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW20" t="n">
         <v>18</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-1.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
       </c>
       <c r="AF21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG21" t="n">
         <v>22</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
@@ -4220,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>29</v>
@@ -4235,7 +4302,7 @@
         <v>24</v>
       </c>
       <c r="AO21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AP21" t="n">
         <v>9</v>
@@ -4244,16 +4311,16 @@
         <v>6</v>
       </c>
       <c r="AR21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS21" t="n">
         <v>16</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>15</v>
       </c>
       <c r="AT21" t="n">
         <v>14</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV21" t="n">
         <v>30</v>
@@ -4265,13 +4332,13 @@
         <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
         <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.842</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J22" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M22" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.353</v>
       </c>
       <c r="O22" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="P22" t="n">
-        <v>27</v>
+        <v>27.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.802</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R22" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="T22" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="V22" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X22" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
         <v>100.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4408,34 +4475,34 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
         <v>16</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4447,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -4488,106 +4555,106 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.571</v>
+        <v>0.6</v>
       </c>
       <c r="H23" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="J23" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.434</v>
+        <v>0.439</v>
       </c>
       <c r="L23" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M23" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.386</v>
+        <v>0.389</v>
       </c>
       <c r="O23" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="P23" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.631</v>
+        <v>0.639</v>
       </c>
       <c r="R23" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="S23" t="n">
-        <v>32</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>43</v>
+        <v>42.4</v>
       </c>
       <c r="U23" t="n">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
         <v>15.5</v>
       </c>
       <c r="W23" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X23" t="n">
         <v>4.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z23" t="n">
         <v>18.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>91.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG23" t="n">
         <v>11</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12</v>
       </c>
       <c r="AH23" t="n">
         <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4608,19 +4675,19 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU23" t="n">
         <v>17</v>
       </c>
-      <c r="AS23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>20</v>
-      </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW23" t="n">
         <v>27</v>
@@ -4635,10 +4702,10 @@
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
         <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>0.714</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
       </c>
       <c r="I24" t="n">
-        <v>38.4</v>
+        <v>38.9</v>
       </c>
       <c r="J24" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.465</v>
+        <v>0.469</v>
       </c>
       <c r="L24" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M24" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.383</v>
+        <v>0.389</v>
       </c>
       <c r="O24" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="P24" t="n">
         <v>19.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.723</v>
+        <v>0.732</v>
       </c>
       <c r="R24" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S24" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T24" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V24" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="W24" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>4.9</v>
@@ -4739,64 +4806,64 @@
         <v>17.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.5</v>
+        <v>98.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="AD24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE24" t="n">
         <v>5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>4</v>
       </c>
       <c r="AF24" t="n">
         <v>4</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>4</v>
       </c>
       <c r="AL24" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AM24" t="n">
         <v>19</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP24" t="n">
         <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AR24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU24" t="n">
         <v>6</v>
@@ -4808,19 +4875,19 @@
         <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.35</v>
+        <v>0.368</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
@@ -4876,43 +4943,43 @@
         <v>0.439</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="M25" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.344</v>
+        <v>0.331</v>
       </c>
       <c r="O25" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="P25" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.773</v>
+        <v>0.768</v>
       </c>
       <c r="R25" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="T25" t="n">
-        <v>41.3</v>
+        <v>41.7</v>
       </c>
       <c r="U25" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W25" t="n">
         <v>6.9</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
         <v>3.8</v>
@@ -4921,22 +4988,22 @@
         <v>19.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>91.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.8</v>
+        <v>-3.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
         <v>21</v>
@@ -4945,67 +5012,67 @@
         <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ25" t="n">
         <v>17</v>
       </c>
       <c r="AK25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL25" t="n">
         <v>16</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>15</v>
       </c>
       <c r="AM25" t="n">
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
         <v>9</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.571</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I26" t="n">
         <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L26" t="n">
         <v>5.9</v>
@@ -5064,73 +5131,73 @@
         <v>19</v>
       </c>
       <c r="N26" t="n">
-        <v>0.308</v>
+        <v>0.311</v>
       </c>
       <c r="O26" t="n">
-        <v>18.6</v>
+        <v>19.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.8</v>
+        <v>24.4</v>
       </c>
       <c r="Q26" t="n">
         <v>0.782</v>
       </c>
       <c r="R26" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="S26" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T26" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U26" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W26" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="AC26" t="n">
         <v>5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>97</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>4.5</v>
-      </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG26" t="n">
         <v>11</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>14</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
@@ -5142,7 +5209,7 @@
         <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
         <v>8</v>
@@ -5154,16 +5221,16 @@
         <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AS26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
@@ -5172,13 +5239,13 @@
         <v>10</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>12</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-11.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5309,7 +5376,7 @@
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ27" t="n">
         <v>4</v>
@@ -5321,7 +5388,7 @@
         <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
         <v>28</v>
@@ -5333,7 +5400,7 @@
         <v>8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5357,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -5398,115 +5465,115 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.591</v>
+        <v>0.571</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K28" t="n">
-        <v>0.46</v>
+        <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M28" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.386</v>
+        <v>0.384</v>
       </c>
       <c r="O28" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="P28" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.715</v>
+        <v>0.719</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T28" t="n">
-        <v>41.5</v>
+        <v>41.2</v>
       </c>
       <c r="U28" t="n">
         <v>23.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X28" t="n">
         <v>4.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
         <v>17</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AD28" t="n">
         <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
       </c>
       <c r="AI28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>5</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>6</v>
-      </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,25 +5582,25 @@
         <v>27</v>
       </c>
       <c r="AQ28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
         <v>26</v>
@@ -5545,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5670,10 +5737,10 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ29" t="n">
         <v>26</v>
@@ -5700,34 +5767,34 @@
         <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
         <v>21</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
         <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>0.632</v>
+        <v>0.611</v>
       </c>
       <c r="H30" t="n">
         <v>48.8</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J30" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.45</v>
+        <v>0.454</v>
       </c>
       <c r="L30" t="n">
         <v>3.9</v>
@@ -5792,58 +5859,58 @@
         <v>13.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.294</v>
+        <v>0.296</v>
       </c>
       <c r="O30" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="P30" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.738</v>
+        <v>0.743</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T30" t="n">
-        <v>43.2</v>
+        <v>42.8</v>
       </c>
       <c r="U30" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="V30" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.8</v>
+        <v>97</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -5855,46 +5922,46 @@
         <v>3</v>
       </c>
       <c r="AI30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ30" t="n">
         <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
         <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AS30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT30" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AU30" t="n">
         <v>16</v>
       </c>
       <c r="AV30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW30" t="n">
         <v>11</v>
@@ -5903,7 +5970,7 @@
         <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
@@ -5912,10 +5979,10 @@
         <v>7</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
@@ -5944,28 +6011,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>48</v>
       </c>
       <c r="I31" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J31" t="n">
-        <v>83.2</v>
+        <v>82.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
       <c r="L31" t="n">
         <v>3.9</v>
@@ -5974,55 +6041,55 @@
         <v>13.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.289</v>
+        <v>0.293</v>
       </c>
       <c r="O31" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.727</v>
+        <v>0.724</v>
       </c>
       <c r="R31" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="S31" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T31" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U31" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="V31" t="n">
         <v>15.8</v>
       </c>
       <c r="W31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="X31" t="n">
         <v>7.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>88.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AC31" t="n">
         <v>-9.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
@@ -6040,7 +6107,7 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="n">
         <v>27</v>
@@ -6049,7 +6116,7 @@
         <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN31" t="n">
         <v>27</v>
@@ -6058,19 +6125,19 @@
         <v>22</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS31" t="n">
         <v>21</v>
       </c>
       <c r="AT31" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6079,19 +6146,19 @@
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-30-2011-12</t>
+          <t>2012-01-30</t>
         </is>
       </c>
     </row>
